--- a/biology/Botanique/Hecatonema/Hecatonema.xlsx
+++ b/biology/Botanique/Hecatonema/Hecatonema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hecatonema est un genre d'algues brunes de la famille des Chordariaceae selon AlgaeBase                                           (31 oct. 2012)[1], Catalogue of Life                                  (31 oct. 2012)[2], NCBI  (31 oct. 2012)[3] et World Register of Marine Species                               (31 oct. 2012)[4], ou bien de la famille des Myrionemataceae selon ITIS      (31 oct. 2012)[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hecatonema est un genre d'algues brunes de la famille des Chordariaceae selon AlgaeBase                                           (31 oct. 2012), Catalogue of Life                                  (31 oct. 2012), NCBI  (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012), ou bien de la famille des Myrionemataceae selon ITIS      (31 oct. 2012). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 oct. 2012) :
 Hecatonema aequale Kraft
 Hecatonema aggregatum (P.J.L.Dangeard) P.-M.Pedersen
 Hecatonema dispar Kraft
@@ -528,7 +542,7 @@
 Hecatonema stewartense V.J.Chapman
 Hecatonema streblonematoides (Setchell &amp; N.L.Gardner) Loiseaux
 Hecatonema terminale (Kützing) Kylin (espèce type)
-Selon Catalogue of Life                                  (31 oct. 2012)[2] :
+Selon Catalogue of Life                                  (31 oct. 2012) :
 Hecatonema aggregatum
 Hecatonema enhali
 Hecatonema floridanum
@@ -540,14 +554,14 @@
 Hecatonema stewartensis
 Hecatonema streblonematoides
 Hecatonema terminale
-Selon ITIS      (31 oct. 2012)[5] :
+Selon ITIS      (31 oct. 2012) :
 Hecatonema foecundum
 Hecatonema lawsoni
 Hecatonema maculans
 Hecatonema primarium S. &amp; G.
 Hecatonema streblonematoides (Setchell &amp; Gardner) Loiseaux
 Hecatonema terminalis
-Selon World Register of Marine Species                               (31 oct. 2012)[4] :
+Selon World Register of Marine Species                               (31 oct. 2012) :
 Hecatonema aequale Kraft, 2009
 Hecatonema aggregatum (P.J.L.Dangeard) P.-M.Pedersen, 1984
 Hecatonema dispar Kraft, 2009
